--- a/hallo_root/evaluate_root/Evaluate.xlsx
+++ b/hallo_root/evaluate_root/Evaluate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\stf-zero\talkingface-kit\hallo_root\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\stf-zero\talkingface-kit\hallo_root\evaluate_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F79F3A-FD11-43A5-8CD6-B6A0874A99BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B481EA-249B-402C-9385-AA05601D5EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Case</t>
   </si>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>SSIM ↑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMD ↓</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E3:L23"/>
+  <dimension ref="E3:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -557,7 +561,7 @@
     <col min="17" max="17" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:12" ht="27.6" customHeight="1">
+    <row r="3" spans="5:13" ht="27.6" customHeight="1">
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,8 +586,11 @@
       <c r="L3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="5:13" ht="27.6" customHeight="1">
       <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
@@ -608,8 +615,11 @@
       <c r="L4" s="3">
         <v>7.8487179999999999</v>
       </c>
-    </row>
-    <row r="5" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M4" s="6">
+        <v>167.46013393599301</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13" ht="27.6" customHeight="1">
       <c r="E5" s="9"/>
       <c r="F5" s="4" t="s">
         <v>5</v>
@@ -626,8 +636,9 @@
       <c r="L5" s="5">
         <v>7.6516070000000003</v>
       </c>
-    </row>
-    <row r="6" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="5:13" ht="27.6" customHeight="1">
       <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
@@ -652,8 +663,11 @@
       <c r="L6" s="5">
         <v>7.2959775999999996</v>
       </c>
-    </row>
-    <row r="7" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M6" s="6">
+        <v>390.70957022185502</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" ht="27.6" customHeight="1">
       <c r="E7" s="9"/>
       <c r="F7" s="4" t="s">
         <v>5</v>
@@ -670,8 +684,9 @@
       <c r="L7" s="5">
         <v>7.4003889999999997</v>
       </c>
-    </row>
-    <row r="8" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="5:13" ht="27.6" customHeight="1">
       <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
@@ -696,8 +711,11 @@
       <c r="L8" s="5">
         <v>7.7346529999999998</v>
       </c>
-    </row>
-    <row r="9" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M8" s="6">
+        <v>153.06692504949001</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" ht="27.6" customHeight="1">
       <c r="E9" s="9"/>
       <c r="F9" s="4" t="s">
         <v>5</v>
@@ -714,8 +732,9 @@
       <c r="L9" s="5">
         <v>6.8952102999999996</v>
       </c>
-    </row>
-    <row r="10" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="5:13" ht="27.6" customHeight="1">
       <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
@@ -740,8 +759,11 @@
       <c r="L10" s="5">
         <v>7.6105749999999999</v>
       </c>
-    </row>
-    <row r="11" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M10" s="6">
+        <v>183.045834572594</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" ht="27.6" customHeight="1">
       <c r="E11" s="9"/>
       <c r="F11" s="4" t="s">
         <v>5</v>
@@ -758,8 +780,9 @@
       <c r="L11" s="5">
         <v>7.8896112</v>
       </c>
-    </row>
-    <row r="12" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="5:13" ht="27.6" customHeight="1">
       <c r="E12" s="8" t="s">
         <v>9</v>
       </c>
@@ -784,8 +807,11 @@
       <c r="L12" s="5">
         <v>7.447279</v>
       </c>
-    </row>
-    <row r="13" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M12" s="6">
+        <v>146.93439858431699</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" ht="27.6" customHeight="1">
       <c r="E13" s="9"/>
       <c r="F13" s="4" t="s">
         <v>5</v>
@@ -802,8 +828,9 @@
       <c r="L13" s="5">
         <v>6.0140500000000001</v>
       </c>
-    </row>
-    <row r="14" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="5:13" ht="27.6" customHeight="1">
       <c r="E14" s="8" t="s">
         <v>10</v>
       </c>
@@ -828,8 +855,11 @@
       <c r="L14" s="5">
         <v>8.1752599999999997</v>
       </c>
-    </row>
-    <row r="15" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M14" s="6">
+        <v>413.15453982707999</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" ht="27.6" customHeight="1">
       <c r="E15" s="9"/>
       <c r="F15" s="4" t="s">
         <v>5</v>
@@ -846,8 +876,9 @@
       <c r="L15" s="5">
         <v>8.4900520000000004</v>
       </c>
-    </row>
-    <row r="16" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="5:13" ht="27.6" customHeight="1">
       <c r="E16" s="10" t="s">
         <v>11</v>
       </c>
@@ -872,8 +903,11 @@
       <c r="L16" s="5">
         <v>7.6974359999999997</v>
       </c>
-    </row>
-    <row r="17" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M16" s="6">
+        <v>159.84510939158801</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" ht="27.6" customHeight="1">
       <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
         <v>5</v>
@@ -890,8 +924,9 @@
       <c r="L17" s="5">
         <v>7.5382204000000002</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="5:13" ht="27.6" customHeight="1">
       <c r="E18" s="10" t="s">
         <v>12</v>
       </c>
@@ -916,8 +951,11 @@
       <c r="L18" s="5">
         <v>7.1826204999999996</v>
       </c>
-    </row>
-    <row r="19" spans="5:12" ht="27.6" customHeight="1">
+      <c r="M18" s="6">
+        <v>418.23570885992098</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" ht="27.6" customHeight="1">
       <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
         <v>5</v>
@@ -934,21 +972,30 @@
       <c r="L19" s="5">
         <v>7.2769313000000002</v>
       </c>
-    </row>
-    <row r="20" spans="5:12" ht="32.450000000000003" customHeight="1"/>
-    <row r="21" spans="5:12" ht="32.450000000000003" customHeight="1"/>
-    <row r="22" spans="5:12" ht="32.450000000000003" customHeight="1"/>
-    <row r="23" spans="5:12" ht="32.450000000000003" customHeight="1"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="5:13" ht="32.450000000000003" customHeight="1"/>
+    <row r="21" spans="5:13" ht="32.450000000000003" customHeight="1"/>
+    <row r="22" spans="5:13" ht="32.450000000000003" customHeight="1"/>
+    <row r="23" spans="5:13" ht="32.450000000000003" customHeight="1"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
+  <mergeCells count="40">
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
@@ -965,14 +1012,14 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
